--- a/com.AutomationFramework/src/test/resources/TestData.xlsx
+++ b/com.AutomationFramework/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSP\eclipse-workspace\com.AutomationFramework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSP\git\QWA_SJFVD-M2-Repository\com.AutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BA00CB-0A94-42BA-A60C-55857907A691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BEF8DD-ABCA-4EF7-88C4-0012BE15F934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CF50120-9A75-47FB-B6BE-FE93F633F674}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -33,25 +33,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>admin</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Admin1</t>
-  </si>
-  <si>
-    <t>Admin2</t>
-  </si>
-  <si>
-    <t>Admin3</t>
-  </si>
-  <si>
-    <t>Admin4</t>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -108,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ED5859-CA05-4A29-A683-0E1E42D88ACE}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +424,7 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,40 +432,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/com.AutomationFramework/src/test/resources/TestData.xlsx
+++ b/com.AutomationFramework/src/test/resources/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSP\git\QWA_SJFVD-M2-Repository\com.AutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BEF8DD-ABCA-4EF7-88C4-0012BE15F934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E8455B-2B4B-43DD-AD81-6845A8E92502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CF50120-9A75-47FB-B6BE-FE93F633F674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4CF50120-9A75-47FB-B6BE-FE93F633F674}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -37,6 +38,36 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Admin1</t>
+  </si>
+  <si>
+    <t>Manager1</t>
+  </si>
+  <si>
+    <t>Admin2</t>
+  </si>
+  <si>
+    <t>Manager2</t>
+  </si>
+  <si>
+    <t>Admin3</t>
+  </si>
+  <si>
+    <t>Manager3</t>
+  </si>
+  <si>
+    <t>Admin4</t>
+  </si>
+  <si>
+    <t>Manager4</t>
+  </si>
+  <si>
+    <t>Admin5</t>
+  </si>
+  <si>
+    <t>Manager5</t>
   </si>
 </sst>
 </file>
@@ -93,11 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,9 +442,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ED5859-CA05-4A29-A683-0E1E42D88ACE}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -440,21 +470,72 @@
         <v>3</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B18460-DFAA-4FC2-94CA-6A5743B95209}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
